--- a/PAPER/2023-10-04-International_Journal_of_Rock_Mechanics_and_Mining_Sciences/Paper/articles_reads/Resumos_artigos.xlsx
+++ b/PAPER/2023-10-04-International_Journal_of_Rock_Mechanics_and_Mining_Sciences/Paper/articles_reads/Resumos_artigos.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITPROJECTS\PDJ\twin-tunnels\PAPER\2023-10-04-International_Journal_of_Rock_Mechanics_and_Mining_Sciences\Paper\articles_reads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45DFCB29-4666-431C-B3B6-99F39F806F01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B51F3B-E306-431A-A7A5-3690AF7E94BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="21600" windowHeight="15135" xr2:uid="{B7890F42-AD64-4F9C-97A9-9E703388DD9A}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B7890F42-AD64-4F9C-97A9-9E703388DD9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="165">
   <si>
     <t>Domínio</t>
   </si>
@@ -242,9 +243,6 @@
     <t>Camadas BSC e SC: Hardening Soil (HS) - modelo já usando para simular subsolo em Bankok em outras aplicações. Outras camadas elastoplástico Mohr-Coulomb.</t>
   </si>
   <si>
-    <t>Elástico linear</t>
-  </si>
-  <si>
     <t>Elástico linear. Incluindo o escudo e a camada de rejuntamento.</t>
   </si>
   <si>
@@ -302,9 +300,6 @@
     <t>3D numerical investigation of the bending moments acting on tunnel junctions constructed in fractured/wathred to very blocy rock mass</t>
   </si>
   <si>
-    <t>Investiga o efeito da construção de túneis transversais de ligação entre túneis gêmeos, considerando revestimento de concreto projetado, com o emprego de análises numéricas paramétricas 3D.</t>
-  </si>
-  <si>
     <t>a) graficos normalizados e equações analíticas para momentos fletores que atuam na zona de intersecção para estimativas preliminares dos requisitos de revestimento nas junções de túneis.</t>
   </si>
   <si>
@@ -345,6 +340,198 @@
   </si>
   <si>
     <t>3D FEM Model on the Parameters’ Influence of EPB-TBM on Settlements of Single and Twin Metro Tunnels During Construction</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>Expanding Underground. Knowledge and Passion to Make a Positive Impact on the World - Anagnostou, Benardos and Marinus. Taylofracis.</t>
+  </si>
+  <si>
+    <t>Diâmetro dos túneis gêmeos principais, D = 8 e 12. Da galeria de junção 6 e 8m. Comprimento da escavação 10D e a junção 3D. A escavação dos túneis principais é simulada por uma pressão interna, enquanto que a escavação da galeria pelo método passo a passo.</t>
+  </si>
+  <si>
+    <t>Elástico linear. E = 20GPa e poisson = 0.2</t>
+  </si>
+  <si>
+    <t>3D MEF com ABAQUS. Elementos sólidos para o maciço rochoso e shell para o shotcrete. Foi feita 180 análises numéricas.</t>
+  </si>
+  <si>
+    <t>a) A zona crítica no suporte primário do túnel principal, onde os momentos de flexão estão sujeitos a alterações severas devido à construção do túnel de junção, tem uma extensão de aproximadamente um diâmetro (1D) do túnel principal, em ambos os lados do centro da interseção.</t>
+  </si>
+  <si>
+    <t>Não tem.</t>
+  </si>
+  <si>
+    <t>Na revisão tem algo de solução analítica mas não para túneis gêmeos.</t>
+  </si>
+  <si>
+    <t>3D numerical investigation of the axial forces acting on tunnel junctions constructed in fractured/weathered to very blocky rockmass</t>
+  </si>
+  <si>
+    <t>Investiga o efeito da construção de um túnel transversal entre túneis gêmeos</t>
+  </si>
+  <si>
+    <t>a) graficos normalizados e equações analíticas para forças axiais que atuam na zona de intersecção para estimativas preliminares dos requisitos de revestimento nas junções de túneis.</t>
+  </si>
+  <si>
+    <t>Zihong Guo Xinrong Liu Zhanyuan Zhu</t>
+  </si>
+  <si>
+    <t>An Elastic Solution for twin circular tunnels' stress in hydrostatic stress field</t>
+  </si>
+  <si>
+    <t>Elastico</t>
+  </si>
+  <si>
+    <t>Não tem</t>
+  </si>
+  <si>
+    <t>Comparações em EPD no que parece ser o ANSYS</t>
+  </si>
+  <si>
+    <t>Desenvolve solução analítica em tensões para túneis gêmeos usando variáveis complexas e superposição de tensões</t>
+  </si>
+  <si>
+    <t>a) verificações da solução analítica desenvolvida com a numérica</t>
+  </si>
+  <si>
+    <t>A diminuição da distância entre os túneis leva a um aumento da concentração de tensões tangenciais.</t>
+  </si>
+  <si>
+    <t>Tenta simular com pressão interna</t>
+  </si>
+  <si>
+    <t>Os eixos da fig 6 e 7 tem erros.</t>
+  </si>
+  <si>
+    <t>Não tem construção. Raios de 4m são investigados</t>
+  </si>
+  <si>
+    <t>Masoud Forsat, Mohammad Taghipoor e Masoud Palassi</t>
+  </si>
+  <si>
+    <t>International Journal of Pavement Research and Technology</t>
+  </si>
+  <si>
+    <t>3D superficial, seção circular</t>
+  </si>
+  <si>
+    <t>a) pressão de suporte da face teve mais efeito no assentamento da superfície em comparação com a pressão de injeção da argamassa. Ao aumentar a pressão da face no túnel único, o local de assentamento máximo recuou enquanto a pressão da argamassa é insignificante para diminuir os assentamentos. b) Além disso, a influência da distância clara nos túneis gêmeos levou a zero após o comprimento de 30 m.</t>
+  </si>
+  <si>
+    <t>Para mais distâncias, os túneis devem ser examinados de forma independente e como dois túneis únicos diferentes.</t>
+  </si>
+  <si>
+    <t>Modela túneis do metrô de Teerã. Máquina TBM-EPB (earth pressure balance)</t>
+  </si>
+  <si>
+    <t>MEF 3D. PLAXIS 3D. Elemento triangular de 15 nós para o solo.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escavação passo-a-passo. Passo de escavação de 1.5 m por etapa. Eixo dos túneis a 25 m de profundidade e nível da água a 2 m abaixo da superfície. </t>
+  </si>
+  <si>
+    <t>Elastoplástico perfeito MC.</t>
+  </si>
+  <si>
+    <t>Elástico linear com módulo de 38GPa e poisson 0.2.</t>
+  </si>
+  <si>
+    <t>a) perfis de assentamento</t>
+  </si>
+  <si>
+    <t>Nâo chamou a atenção</t>
+  </si>
+  <si>
+    <t>Analytical solution for determining the plastic zones around twin circular tunnels excavated at great depth</t>
+  </si>
+  <si>
+    <t>Yaocai Ma, Aizhong Lu, Xiangtai Zeng, Hui Cai</t>
+  </si>
+  <si>
+    <t>International Journal of Rock Mechanics and Mining Sciences</t>
+  </si>
+  <si>
+    <t>2D profundo, seção circular EPD</t>
+  </si>
+  <si>
+    <t>Elastoplástico perfeito com critério de Mohr-Coulomb</t>
+  </si>
+  <si>
+    <t>Nãot tem. Raios de 1m.</t>
+  </si>
+  <si>
+    <t>Comparações em EPD das tensões com o FLAC3D</t>
+  </si>
+  <si>
+    <t>a) comparativos de tensões em alguns caminhos. B) contorno das zonas plásticas.</t>
+  </si>
+  <si>
+    <t>Desenvolvem uma solução analítica elastoplástica. Consideram que as zonas plásticas não interagem.</t>
+  </si>
+  <si>
+    <t>a) A influência do espaçamento entre túneis s nas zonas de plástico concentra-se principalmente na rocha entre os dois túneis. As zonas plásticas discutidas neste artigo são difíceis de formar para menores s. Quanto maior o s quanto mais fraca for a interação entre os dois túneis. b) As influências da coesão c e ângulo de atrito interno za nas zonas de plástico são muito semelhantes. Se c ou za é muito pequena, cada zona de plástico será incapaz de cercar o túnel completamente, e se c ou za é muito grande, as duas zonas de plástico serão conectadas juntas. Com o aumento de c ou za, a forma da zona de plástico entre os dois túneis muda significativamente, de um círculo aproximado para uma polilinha aproximada sob a ação de igual tensões biaxiais</t>
+  </si>
+  <si>
+    <t>Foi usada no artigo</t>
+  </si>
+  <si>
+    <t>Chen Fu-quan, Lin Luo-bin, Li Da-yong</t>
+  </si>
+  <si>
+    <t>Analytical solution for tunneling at great depth considering liner installation and mutual interaction between geomaterial and liners</t>
+  </si>
+  <si>
+    <t>Applied Mathematical Modelling</t>
+  </si>
+  <si>
+    <t>Desenvolvem soluções pelo método da variável complexa e da transformada de Fourier através do Método Alternado de Schuarz. Verificam com solução numérica.</t>
+  </si>
+  <si>
+    <t>Investigação paramétrica admensional para investigar a influência da geometria do túnel (espaçamento, ângulo relativo e tamanho relativo entre os túneis)</t>
+  </si>
+  <si>
+    <t>Elástico</t>
+  </si>
+  <si>
+    <t>2D profundo, seção circular EPD, posição arbitrária</t>
+  </si>
+  <si>
+    <t>a) apresenta comparações com MEF b) possui investigação paramétrica</t>
+  </si>
+  <si>
+    <t>a) O espaçamento afeta muito a interação mútua entre túneis gêmeos. A interação desaparece para espaçamento de túnel duplo maior que seis vezes o raio do túnel. Assim, um espaçamento razoável é de importância prévia na fase de projeto. Túneis duplos com o mesmo tamanho podem minimizar a incerteza e o custo de engenharia. b) Os revestimentos reduzem eficientemente a concentração de tensão e o potencial da zona de tração no geomaterial, especialmente para o estrato ou geomaterial com alto coeficiente de tensão lateral. A espessura do revestimento deve ser estudada com cautela durante o estágio de projeto para atender à segurança do túnel e ao baixo custo.</t>
+  </si>
+  <si>
+    <t>Analysis of lateral opening in tunnel linings</t>
+  </si>
+  <si>
+    <t>Panagiotis Spyridis, Konrad Bergmeister</t>
+  </si>
+  <si>
+    <t>Investiga o efeito da passagem de outro túnel no revestimento do túnel principal.</t>
+  </si>
+  <si>
+    <t>Elástico eventual não-linear</t>
+  </si>
+  <si>
+    <t>3D mas não gêmeo. Intersecção. Superficial</t>
+  </si>
+  <si>
+    <t>Abaqus. Elementos 3D para o solo e shell para o revestimento.</t>
+  </si>
+  <si>
+    <t>a) tem comparações com solução analítica de Kirsch</t>
+  </si>
+  <si>
+    <t>Elástico E = 15GPa e nu = 0.2</t>
+  </si>
+  <si>
+    <t>Seção circulares e revestimento contínuos. Pressão hidrostática. K0 = 1. Diâmetro de 10m. Cobertura do solo de 1, 2 e 3 diâmetros.</t>
+  </si>
+  <si>
+    <t>a) As soluções de Kirsch (ou similares) revelam-se deficientes para aberturas não circulares, uma vez que produzem uma compressão mais baixa nas linhas de mola e valores mais elevados em todos os outros casos. B) Análises bidimensionais mostram sensibilidade à forma da abertura. Os modelos numéricos de tensão plana devem ser preferidos às soluções analíticas, desde que a geometria desenvolvida da abertura esteja bem definida. As diferenças nos resultados de 2D numérico e analítico (por exemplo. Os métodos de Kirsch) diminuem para as proporções de túnel de criança/pai pequeno. c) Determinadas dependências são identificadas entre a redistribuição de tensões e os parâmetros do problema, como por exemplo a profundidade do túnel (ver artigo)</t>
   </si>
 </sst>
 </file>
@@ -730,10 +917,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919CEB05-9993-4A47-9FE5-5C54C04A7A62}">
-  <dimension ref="D8:Q140"/>
+  <dimension ref="C8:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,7 +938,7 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="4:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17" ht="30" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
@@ -795,7 +982,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="4:17" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:17" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>2</v>
       </c>
@@ -839,7 +1029,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="4:17" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:17" ht="125.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>26</v>
       </c>
@@ -883,7 +1076,10 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="4:17" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:17" ht="152.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C11" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>38</v>
       </c>
@@ -927,7 +1123,10 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="4:17" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:17" ht="155.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C12" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>52</v>
       </c>
@@ -971,7 +1170,10 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="4:17" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:17" ht="111" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D13" s="1" t="s">
         <v>60</v>
       </c>
@@ -991,199 +1193,464 @@
         <v>67</v>
       </c>
       <c r="J13" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>70</v>
       </c>
       <c r="M13" s="1" t="s">
         <v>64</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>65</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="14" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C14" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="D14" s="1" t="s">
-        <v>74</v>
+        <v>100</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
       <c r="G14" s="1">
         <v>2021</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>78</v>
+        <v>125</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>83</v>
+        <v>132</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="3:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D15" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>75</v>
       </c>
       <c r="G15" s="1">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>77</v>
       </c>
       <c r="I15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="3:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M16" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="17" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D17" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G17" s="1">
+        <v>2023</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="18" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D18" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="19" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2020</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="20" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2019</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="1">
+        <v>2015</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="22" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D23" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="N15" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D16" s="1" t="s">
+      <c r="G23" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="24" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D24" s="1" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="17" spans="4:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="1" t="s">
+      <c r="G24" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D25" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="G17" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="20" spans="4:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G20" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G21" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G22" s="1">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="G23" s="1">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2017</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="G25" s="1">
         <v>2022</v>
       </c>
     </row>
-    <row r="26" spans="4:7" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="G26" s="1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="27" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D27" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G27" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="4:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D28" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="29" spans="4:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D29" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" s="1">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="30" spans="4:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D30" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G30" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="31" spans="4:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="32" spans="4:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G32" s="1">
         <v>2021</v>
       </c>
     </row>
-    <row r="27" spans="4:7" ht="147" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="G27" s="1">
-        <v>2021</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="4:7" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="30" spans="4:7" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="31" spans="4:7" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="4:7" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="33" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="34" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="36" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1291,6 +1758,12 @@
     <row r="138" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="139" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="140" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="141" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="145" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/PAPER/2023-10-04-International_Journal_of_Rock_Mechanics_and_Mining_Sciences/Paper/articles_reads/Resumos_artigos.xlsx
+++ b/PAPER/2023-10-04-International_Journal_of_Rock_Mechanics_and_Mining_Sciences/Paper/articles_reads/Resumos_artigos.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITPROJECTS\PDJ\twin-tunnels\PAPER\2023-10-04-International_Journal_of_Rock_Mechanics_and_Mining_Sciences\Paper\articles_reads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B51F3B-E306-431A-A7A5-3690AF7E94BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A248AADE-5862-48FF-815A-2C97FA3F0D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{B7890F42-AD64-4F9C-97A9-9E703388DD9A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B7890F42-AD64-4F9C-97A9-9E703388DD9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="199">
   <si>
     <t>Domínio</t>
   </si>
@@ -532,6 +531,108 @@
   </si>
   <si>
     <t>a) As soluções de Kirsch (ou similares) revelam-se deficientes para aberturas não circulares, uma vez que produzem uma compressão mais baixa nas linhas de mola e valores mais elevados em todos os outros casos. B) Análises bidimensionais mostram sensibilidade à forma da abertura. Os modelos numéricos de tensão plana devem ser preferidos às soluções analíticas, desde que a geometria desenvolvida da abertura esteja bem definida. As diferenças nos resultados de 2D numérico e analítico (por exemplo. Os métodos de Kirsch) diminuem para as proporções de túnel de criança/pai pequeno. c) Determinadas dependências são identificadas entre a redistribuição de tensões e os parâmetros do problema, como por exemplo a profundidade do túnel (ver artigo)</t>
+  </si>
+  <si>
+    <t>Changgui Li, Junbo Zhao, Juan Hu, Xiuying Ju, Xiaoxu Tian</t>
+  </si>
+  <si>
+    <t>IOP Conference series: earth and evironmental science. 2020 6th international conference on hydraulic and civil engineering, China</t>
+  </si>
+  <si>
+    <t>Elastoplástico Mohr-Coulomb</t>
+  </si>
+  <si>
+    <t>Elástico linear</t>
+  </si>
+  <si>
+    <t>3D superficial, seção não circular</t>
+  </si>
+  <si>
+    <t>Ngoc Anh-Do, Daniel Dias, Mohammad-Reza Baghban Golpasand, Van Kien Dang, Ouachéne Nait-Rabah, Van Vi Pham, Trong Thang Dang</t>
+  </si>
+  <si>
+    <t>Cap-Yeld - Strain-hardening constitutive model MC and strain-dependent soil siffness</t>
+  </si>
+  <si>
+    <t>3D superfícial seção circular um abaixo da outra</t>
+  </si>
+  <si>
+    <t>Elastico linear</t>
+  </si>
+  <si>
+    <t>Elastico linear E = 31.96 Gpa, nu = 0.25. E rockbolds E = 20 Gpa, nu = 0.2</t>
+  </si>
+  <si>
+    <t>3D superficial seção não circular</t>
+  </si>
+  <si>
+    <t>Shen Zhou, Zongqing Zhou, Hongliang Liu, Liping Li, Jinglong Li, Chengshun Shang e Xiaoyu Ji</t>
+  </si>
+  <si>
+    <t>Chengwen Wang, Xiaoli Liu, Wenli Yao, Enzhi Wang, Nan Hu, Zhiy Huang e Yiqi Sun</t>
+  </si>
+  <si>
+    <t>Bulletin of Engineering Geology and the Environment</t>
+  </si>
+  <si>
+    <t>3D profundo seção circular</t>
+  </si>
+  <si>
+    <t>Trong-Nhan Do, Jian-Hong Wu</t>
+  </si>
+  <si>
+    <t>Rocha articulada modelo descontínuo</t>
+  </si>
+  <si>
+    <t>2D superficial seção não circular</t>
+  </si>
+  <si>
+    <t>Xiaolu Gan, Jianlin Yu, Xiaonan Gong, Min Zhu</t>
+  </si>
+  <si>
+    <t>Túnel gêmeo passando por baixo de outro túnel. Superficial</t>
+  </si>
+  <si>
+    <t>Mojtaba Nematollahi, Daniel Dias</t>
+  </si>
+  <si>
+    <t>3D superficial</t>
+  </si>
+  <si>
+    <t>CY model strain hardening</t>
+  </si>
+  <si>
+    <t>Código em diferenças finitas FLAC3D</t>
+  </si>
+  <si>
+    <t>Mojtaba Nematollahi, Hamed Molladavoodi, Daniel Dias</t>
+  </si>
+  <si>
+    <t>European Journal of Evironmental and Civil Engineering</t>
+  </si>
+  <si>
+    <t>Mohr-Coulomb</t>
+  </si>
+  <si>
+    <t>3D superficial. 2 túneis abaixo de outro túnel.</t>
+  </si>
+  <si>
+    <t>HSS - Hardening soil model with small strain stiffness</t>
+  </si>
+  <si>
+    <t>Zhiyong Liu, Jianfeng Xue, Jianzhong Ye, Jiangu Qian</t>
+  </si>
+  <si>
+    <t>Transportation Geotechnics</t>
+  </si>
+  <si>
+    <t>Habin Zheng, Pengfei Li, Guowei Ma, Quianbing Zhang</t>
+  </si>
+  <si>
+    <t>3D Duplo diferentes diâmetros. Modelo experimental</t>
+  </si>
+  <si>
+    <t>Elastoplástico Mohrcoulomb</t>
   </si>
 </sst>
 </file>
@@ -548,7 +649,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -919,8 +1020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919CEB05-9993-4A47-9FE5-5C54C04A7A62}">
   <dimension ref="C8:Q146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -938,7 +1039,7 @@
     <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="3:17" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:17" ht="42" x14ac:dyDescent="0.25">
       <c r="D8" s="2" t="s">
         <v>25</v>
       </c>
@@ -1570,13 +1671,46 @@
       <c r="D22" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="E22" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G22" s="1">
+        <v>2021</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="23" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D23" s="1" t="s">
         <v>90</v>
       </c>
+      <c r="E23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G23" s="1">
         <v>2022</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="24" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1591,64 +1725,178 @@
       <c r="D25" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="E25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="G25" s="1">
         <v>2022</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D26" s="1" t="s">
         <v>93</v>
       </c>
+      <c r="E26" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>178</v>
+      </c>
       <c r="G26" s="1">
         <v>2024</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="4:17" ht="123.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D27" s="1" t="s">
         <v>94</v>
       </c>
+      <c r="E27" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="G27" s="1">
         <v>2020</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="28" spans="4:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D28" s="1" t="s">
         <v>95</v>
       </c>
+      <c r="E28" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G28" s="1">
         <v>2022</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="4:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D29" s="1" t="s">
         <v>96</v>
       </c>
+      <c r="E29" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G29" s="1">
         <v>2020</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="30" spans="4:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D30" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="E30" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>190</v>
+      </c>
       <c r="G30" s="1">
         <v>2017</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="31" spans="4:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D31" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="E31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>54</v>
+      </c>
       <c r="G31" s="1">
         <v>2022</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="32" spans="4:17" ht="147" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D32" s="1" t="s">
         <v>99</v>
       </c>
+      <c r="E32" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="G32" s="1">
         <v>2021</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="34" ht="147" customHeight="1" x14ac:dyDescent="0.25"/>
